--- a/sample_output/outputsheets.xlsx
+++ b/sample_output/outputsheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishamial Boako\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Git\dms4\sample_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DAFFB-07C0-43DF-BD40-E08A8996C80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6EBE58-5C2D-4792-A5DC-E46E27378652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5070" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{4A2D270C-542E-4E60-8A96-361D1979326B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{4A2D270C-542E-4E60-8A96-361D1979326B}"/>
   </bookViews>
   <sheets>
     <sheet name="form versions" sheetId="9" r:id="rId1"/>
@@ -2256,7 +2256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,10 +2268,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2901,20 +2903,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9149B-0A9E-4933-A8EA-57FDE95BB979}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.20703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2948,7 +2950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +2984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -3026,21 +3028,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="13.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="14" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="14"/>
-    <col min="13" max="13" width="9.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="2" width="13.7890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.41796875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="41.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.5234375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.5234375" style="14" customWidth="1"/>
+    <col min="9" max="12" width="9.1015625" style="14"/>
+    <col min="13" max="13" width="9.20703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1015625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3105,7 +3107,7 @@
       <c r="K2" s="32"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3135,7 +3137,7 @@
       <c r="K3" s="18"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="K4" s="15"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -3195,7 +3197,7 @@
       <c r="K5" s="18"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -3225,7 +3227,7 @@
       <c r="K6" s="32"/>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -3255,7 +3257,7 @@
       <c r="K7" s="18"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="32">
         <v>1</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="K8" s="32"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="K9" s="18"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="32">
         <v>1</v>
       </c>
@@ -3345,7 +3347,7 @@
       <c r="K10" s="32"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -3375,7 +3377,7 @@
       <c r="K11" s="18"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="32">
         <v>1</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="K12" s="32"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="K13" s="18"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="32">
         <v>1</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="K14" s="32"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="K15" s="18"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="32">
         <v>1</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="K16" s="32"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -3555,7 +3557,7 @@
       <c r="K17" s="18"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15">
         <v>1</v>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="K18" s="15"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -3615,7 +3617,7 @@
       <c r="K19" s="18"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="32">
         <v>1</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="K20" s="32"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="K21" s="18"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15">
         <v>1</v>
       </c>
@@ -3705,7 +3707,7 @@
       <c r="K22" s="15"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="K23" s="18"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -3765,7 +3767,7 @@
       <c r="K24" s="15"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="K25" s="18"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -3825,7 +3827,7 @@
       <c r="K26" s="15"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="18">
         <v>2</v>
       </c>
@@ -3855,7 +3857,7 @@
       <c r="K27" s="18"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="32">
         <v>1</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="K28" s="32"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="18">
         <v>2</v>
       </c>
@@ -3933,19 +3935,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="1" width="6.5234375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.68359375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.5234375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.5234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.3125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1015625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4003,7 +4005,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4029,7 +4031,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -4055,7 +4057,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -4081,7 +4083,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -4107,7 +4109,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -4185,7 +4187,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -4237,7 +4239,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="32">
         <v>1</v>
       </c>
@@ -4263,7 +4265,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -4289,7 +4291,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="32">
         <v>1</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="I14" s="34"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -4341,7 +4343,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="32">
         <v>1</v>
       </c>
@@ -4367,7 +4369,7 @@
       <c r="I16" s="34"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -4408,20 +4410,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1A4546-FFB9-4016-A2EF-9551B97756D1}">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="14"/>
+    <col min="2" max="2" width="76.7890625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.89453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.89453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.68359375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1015625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>84</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39" t="s">
         <v>88</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="39" t="s">
         <v>90</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="39" t="s">
         <v>92</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="39" t="s">
         <v>94</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>96</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>98</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>100</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35" t="s">
         <v>102</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="39" t="s">
         <v>104</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35" t="s">
         <v>105</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="35" t="s">
         <v>107</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="39" t="s">
         <v>108</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="35" t="s">
         <v>109</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="39" t="s">
         <v>111</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24" t="s">
         <v>112</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24" t="s">
         <v>113</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24" t="s">
         <v>114</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24" t="s">
         <v>115</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24" t="s">
         <v>117</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24" t="s">
         <v>119</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24" t="s">
         <v>120</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24" t="s">
         <v>122</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24" t="s">
         <v>124</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24" t="s">
         <v>125</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="24" t="s">
         <v>127</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="24" t="s">
         <v>128</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="24" t="s">
         <v>132</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="24" t="s">
         <v>134</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="24" t="s">
         <v>136</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="24" t="s">
         <v>138</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="24" t="s">
         <v>140</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="24" t="s">
         <v>142</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="24" t="s">
         <v>144</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="24" t="s">
         <v>145</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="24" t="s">
         <v>146</v>
       </c>
@@ -5201,7 +5203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="24" t="s">
         <v>148</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="24" t="s">
         <v>149</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="24" t="s">
         <v>150</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="24" t="s">
         <v>152</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="24" t="s">
         <v>154</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="24" t="s">
         <v>155</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="24" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="24" t="s">
         <v>159</v>
       </c>
@@ -5361,7 +5363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="24" t="s">
         <v>160</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24" t="s">
         <v>162</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="24" t="s">
         <v>163</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="24" t="s">
         <v>164</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="24" t="s">
         <v>165</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="24" t="s">
         <v>166</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="24" t="s">
         <v>167</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="24" t="s">
         <v>168</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="24" t="s">
         <v>170</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="24" t="s">
         <v>171</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="24" t="s">
         <v>173</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="24" t="s">
         <v>174</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="24" t="s">
         <v>175</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="24" t="s">
         <v>177</v>
       </c>
@@ -5641,7 +5643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="24" t="s">
         <v>178</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="24" t="s">
         <v>179</v>
       </c>
@@ -5681,7 +5683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="24" t="s">
         <v>181</v>
       </c>
@@ -5701,7 +5703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="24" t="s">
         <v>182</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="24" t="s">
         <v>184</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="24" t="s">
         <v>185</v>
       </c>
@@ -5761,7 +5763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="24" t="s">
         <v>187</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="24" t="s">
         <v>188</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="24" t="s">
         <v>190</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="24" t="s">
         <v>191</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="24" t="s">
         <v>192</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="24" t="s">
         <v>194</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="24" t="s">
         <v>195</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="24" t="s">
         <v>196</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="24" t="s">
         <v>198</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="24" t="s">
         <v>199</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="24" t="s">
         <v>200</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="24" t="s">
         <v>201</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="24" t="s">
         <v>203</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="24" t="s">
         <v>205</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="24" t="s">
         <v>207</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="24" t="s">
         <v>208</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="24" t="s">
         <v>209</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="24" t="s">
         <v>210</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="24" t="s">
         <v>212</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="24" t="s">
         <v>214</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="24" t="s">
         <v>216</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="24" t="s">
         <v>218</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="24" t="s">
         <v>220</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="24" t="s">
         <v>222</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="24" t="s">
         <v>224</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="24" t="s">
         <v>225</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="24" t="s">
         <v>226</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="24" t="s">
         <v>227</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="24" t="s">
         <v>228</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="24" t="s">
         <v>229</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="24" t="s">
         <v>230</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="24" t="s">
         <v>231</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="24" t="s">
         <v>232</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="24" t="s">
         <v>233</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="24" t="s">
         <v>235</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="24" t="s">
         <v>236</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="24" t="s">
         <v>237</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="24" t="s">
         <v>238</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="24" t="s">
         <v>239</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="24" t="s">
         <v>241</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="24" t="s">
         <v>243</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="24" t="s">
         <v>245</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="24" t="s">
         <v>247</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="24" t="s">
         <v>248</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="24" t="s">
         <v>250</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="24" t="s">
         <v>252</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="24" t="s">
         <v>254</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="24" t="s">
         <v>255</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="24" t="s">
         <v>256</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="24" t="s">
         <v>258</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="24" t="s">
         <v>260</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="24" t="s">
         <v>262</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="24" t="s">
         <v>264</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="24" t="s">
         <v>265</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="24" t="s">
         <v>267</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="24" t="s">
         <v>269</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="24" t="s">
         <v>270</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="24" t="s">
         <v>272</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="24" t="s">
         <v>274</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="24" t="s">
         <v>276</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="24" t="s">
         <v>278</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="24" t="s">
         <v>280</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="24" t="s">
         <v>281</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="24" t="s">
         <v>282</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="24" t="s">
         <v>284</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="24" t="s">
         <v>285</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="24" t="s">
         <v>286</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="24" t="s">
         <v>287</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="24" t="s">
         <v>289</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="24" t="s">
         <v>291</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="24" t="s">
         <v>293</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="24" t="s">
         <v>295</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="24" t="s">
         <v>297</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="24" t="s">
         <v>299</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="24" t="s">
         <v>301</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="24" t="s">
         <v>302</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="24" t="s">
         <v>303</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="24" t="s">
         <v>304</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="24" t="s">
         <v>305</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="24" t="s">
         <v>306</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="24" t="s">
         <v>307</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="24" t="s">
         <v>309</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="24" t="s">
         <v>310</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="24" t="s">
         <v>311</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="24" t="s">
         <v>312</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="24" t="s">
         <v>313</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="24" t="s">
         <v>315</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="24" t="s">
         <v>317</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="24" t="s">
         <v>319</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="24" t="s">
         <v>320</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="24" t="s">
         <v>322</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="24" t="s">
         <v>323</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="24" t="s">
         <v>325</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="24" t="s">
         <v>326</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="24" t="s">
         <v>327</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="24" t="s">
         <v>329</v>
       </c>
@@ -7681,7 +7683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="24" t="s">
         <v>330</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="24" t="s">
         <v>331</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="24" t="s">
         <v>332</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="24" t="s">
         <v>333</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="24" t="s">
         <v>334</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="24" t="s">
         <v>335</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="24" t="s">
         <v>336</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="24" t="s">
         <v>337</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="24" t="s">
         <v>338</v>
       </c>
@@ -7861,7 +7863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="24" t="s">
         <v>339</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="24" t="s">
         <v>340</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="24" t="s">
         <v>341</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="24" t="s">
         <v>342</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="24" t="s">
         <v>343</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="24" t="s">
         <v>344</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="24" t="s">
         <v>345</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="24" t="s">
         <v>346</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="24" t="s">
         <v>347</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="24" t="s">
         <v>348</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="24" t="s">
         <v>349</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="24" t="s">
         <v>350</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="24" t="s">
         <v>351</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="24" t="s">
         <v>352</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="24" t="s">
         <v>353</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="24" t="s">
         <v>354</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="24" t="s">
         <v>355</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="24" t="s">
         <v>356</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="24" t="s">
         <v>357</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="24" t="s">
         <v>358</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="24" t="s">
         <v>359</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="24" t="s">
         <v>360</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="24" t="s">
         <v>361</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="24" t="s">
         <v>362</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="24" t="s">
         <v>363</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="24" t="s">
         <v>364</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="24" t="s">
         <v>365</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="24" t="s">
         <v>366</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="24" t="s">
         <v>367</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="24" t="s">
         <v>368</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="24" t="s">
         <v>369</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="24" t="s">
         <v>370</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="24" t="s">
         <v>371</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="24" t="s">
         <v>372</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="24" t="s">
         <v>374</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="24" t="s">
         <v>376</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="24" t="s">
         <v>378</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="24" t="s">
         <v>380</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="24" t="s">
         <v>382</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="24" t="s">
         <v>383</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="24" t="s">
         <v>385</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="24" t="s">
         <v>386</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="24" t="s">
         <v>387</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="24" t="s">
         <v>388</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="24" t="s">
         <v>389</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="24" t="s">
         <v>391</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="24" t="s">
         <v>393</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="24" t="s">
         <v>395</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="24" t="s">
         <v>396</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="24" t="s">
         <v>397</v>
       </c>
@@ -8861,7 +8863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="24" t="s">
         <v>398</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="24" t="s">
         <v>399</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="24" t="s">
         <v>400</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="24" t="s">
         <v>401</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="24" t="s">
         <v>402</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="24" t="s">
         <v>403</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="24" t="s">
         <v>404</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="24" t="s">
         <v>405</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="24" t="s">
         <v>406</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="24" t="s">
         <v>407</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="24" t="s">
         <v>408</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="24" t="s">
         <v>409</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="24" t="s">
         <v>410</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="24" t="s">
         <v>411</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="24" t="s">
         <v>412</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="24" t="s">
         <v>413</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="24" t="s">
         <v>414</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="24" t="s">
         <v>415</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="24" t="s">
         <v>416</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="24" t="s">
         <v>417</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="24" t="s">
         <v>418</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="24" t="s">
         <v>419</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="24" t="s">
         <v>420</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="24" t="s">
         <v>421</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="24" t="s">
         <v>422</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="24" t="s">
         <v>423</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="24" t="s">
         <v>424</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="24" t="s">
         <v>425</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="24" t="s">
         <v>426</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="24" t="s">
         <v>427</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="24" t="s">
         <v>428</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="24" t="s">
         <v>429</v>
       </c>
@@ -9501,7 +9503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="24" t="s">
         <v>430</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="24" t="s">
         <v>431</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="24" t="s">
         <v>432</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="24" t="s">
         <v>433</v>
       </c>
@@ -9581,7 +9583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="24" t="s">
         <v>434</v>
       </c>
@@ -9601,7 +9603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="24" t="s">
         <v>435</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="24" t="s">
         <v>436</v>
       </c>
@@ -9641,7 +9643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="24" t="s">
         <v>438</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="24" t="s">
         <v>440</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="24" t="s">
         <v>442</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="24" t="s">
         <v>443</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="24" t="s">
         <v>444</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="24" t="s">
         <v>445</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="24" t="s">
         <v>446</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="24" t="s">
         <v>447</v>
       </c>
@@ -9801,7 +9803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="24" t="s">
         <v>448</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="24" t="s">
         <v>450</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="24" t="s">
         <v>451</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="24" t="s">
         <v>452</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="24" t="s">
         <v>453</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="24" t="s">
         <v>454</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="24" t="s">
         <v>455</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="24" t="s">
         <v>456</v>
       </c>
@@ -9961,7 +9963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="24" t="s">
         <v>457</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="24" t="s">
         <v>458</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="24" t="s">
         <v>459</v>
       </c>
@@ -10021,7 +10023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="24" t="s">
         <v>460</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="24" t="s">
         <v>461</v>
       </c>
@@ -10061,7 +10063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="24" t="s">
         <v>462</v>
       </c>
@@ -10081,7 +10083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="24" t="s">
         <v>463</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="24" t="s">
         <v>465</v>
       </c>
@@ -10121,7 +10123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="24" t="s">
         <v>467</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="24" t="s">
         <v>469</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="24" t="s">
         <v>471</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="24" t="s">
         <v>473</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="24" t="s">
         <v>475</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="24" t="s">
         <v>477</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="24" t="s">
         <v>479</v>
       </c>
@@ -10261,7 +10263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="24" t="s">
         <v>481</v>
       </c>
@@ -10281,7 +10283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="24" t="s">
         <v>482</v>
       </c>
@@ -10301,7 +10303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="24" t="s">
         <v>483</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="24" t="s">
         <v>485</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="24" t="s">
         <v>487</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="24" t="s">
         <v>489</v>
       </c>
@@ -10381,7 +10383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="24" t="s">
         <v>491</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="24" t="s">
         <v>493</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="24" t="s">
         <v>495</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="24" t="s">
         <v>497</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="24" t="s">
         <v>499</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="24" t="s">
         <v>501</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="24" t="s">
         <v>503</v>
       </c>
@@ -10521,7 +10523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="24" t="s">
         <v>505</v>
       </c>
@@ -10541,7 +10543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="24" t="s">
         <v>507</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="24" t="s">
         <v>509</v>
       </c>
@@ -10581,7 +10583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="24" t="s">
         <v>510</v>
       </c>
@@ -10601,7 +10603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="24" t="s">
         <v>511</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="24" t="s">
         <v>513</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="24" t="s">
         <v>515</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="24" t="s">
         <v>517</v>
       </c>
@@ -10681,7 +10683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="24" t="s">
         <v>519</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="24" t="s">
         <v>521</v>
       </c>
@@ -10721,7 +10723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="24" t="s">
         <v>523</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="24" t="s">
         <v>525</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="24" t="s">
         <v>527</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="24" t="s">
         <v>529</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="24" t="s">
         <v>531</v>
       </c>
@@ -10821,7 +10823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="24" t="s">
         <v>533</v>
       </c>
@@ -10841,7 +10843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="24" t="s">
         <v>535</v>
       </c>
@@ -10861,7 +10863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="24" t="s">
         <v>537</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="24" t="s">
         <v>538</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="24" t="s">
         <v>540</v>
       </c>
@@ -10921,7 +10923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="24" t="s">
         <v>541</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="24" t="s">
         <v>543</v>
       </c>
@@ -10961,7 +10963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="24" t="s">
         <v>545</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="24" t="s">
         <v>547</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="24" t="s">
         <v>549</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="24" t="s">
         <v>550</v>
       </c>
@@ -11041,7 +11043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="24" t="s">
         <v>551</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="24" t="s">
         <v>552</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="24" t="s">
         <v>553</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="24" t="s">
         <v>554</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="24" t="s">
         <v>555</v>
       </c>
@@ -11141,7 +11143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="24" t="s">
         <v>557</v>
       </c>
@@ -11161,7 +11163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="24" t="s">
         <v>558</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="24" t="s">
         <v>7</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="24" t="s">
         <v>560</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="24" t="s">
         <v>561</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="24" t="s">
         <v>562</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="24" t="s">
         <v>563</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="24" t="s">
         <v>564</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="24" t="s">
         <v>565</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="24" t="s">
         <v>566</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="24" t="s">
         <v>567</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="24" t="s">
         <v>568</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="24" t="s">
         <v>569</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="24" t="s">
         <v>570</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="24" t="s">
         <v>572</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="24" t="s">
         <v>574</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="24" t="s">
         <v>12</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="24" t="s">
         <v>576</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="24" t="s">
         <v>577</v>
       </c>
@@ -11521,7 +11523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="24" t="s">
         <v>578</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="24" t="s">
         <v>579</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="24" t="s">
         <v>580</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="24" t="s">
         <v>581</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="24" t="s">
         <v>582</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="24" t="s">
         <v>583</v>
       </c>
@@ -11641,7 +11643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="24" t="s">
         <v>584</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="24" t="s">
         <v>585</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="24" t="s">
         <v>587</v>
       </c>
@@ -11701,7 +11703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="24" t="s">
         <v>589</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="24" t="s">
         <v>590</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="24" t="s">
         <v>592</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="24" t="s">
         <v>594</v>
       </c>
@@ -11781,7 +11783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="24" t="s">
         <v>596</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="24" t="s">
         <v>597</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="24" t="s">
         <v>599</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="24" t="s">
         <v>601</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="24" t="s">
         <v>603</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="24" t="s">
         <v>605</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="24" t="s">
         <v>607</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="24" t="s">
         <v>609</v>
       </c>
@@ -11941,7 +11943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="24" t="s">
         <v>611</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="24" t="s">
         <v>613</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="24" t="s">
         <v>615</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="24" t="s">
         <v>617</v>
       </c>
@@ -12021,7 +12023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="24" t="s">
         <v>618</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="24" t="s">
         <v>620</v>
       </c>
@@ -12061,7 +12063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="24" t="s">
         <v>622</v>
       </c>
@@ -12081,7 +12083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="24" t="s">
         <v>624</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="24" t="s">
         <v>626</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="24" t="s">
         <v>627</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="24" t="s">
         <v>629</v>
       </c>
@@ -12161,7 +12163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="24" t="s">
         <v>631</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="24" t="s">
         <v>632</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="24" t="s">
         <v>65</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="24" t="s">
         <v>634</v>
       </c>
@@ -12241,7 +12243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="24" t="s">
         <v>636</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="24" t="s">
         <v>638</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="24" t="s">
         <v>640</v>
       </c>
@@ -12301,7 +12303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="24" t="s">
         <v>642</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="24" t="s">
         <v>644</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="24" t="s">
         <v>1</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="24" t="s">
         <v>646</v>
       </c>
@@ -12381,7 +12383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="24" t="s">
         <v>647</v>
       </c>
@@ -12401,7 +12403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="24" t="s">
         <v>648</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="24" t="s">
         <v>649</v>
       </c>
@@ -12441,7 +12443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="24" t="s">
         <v>650</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="24" t="s">
         <v>651</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="24" t="s">
         <v>652</v>
       </c>
@@ -12501,7 +12503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="24" t="s">
         <v>653</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="24" t="s">
         <v>654</v>
       </c>
@@ -12541,7 +12543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="24" t="s">
         <v>655</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="24" t="s">
         <v>656</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="24" t="s">
         <v>657</v>
       </c>
@@ -12601,7 +12603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="24" t="s">
         <v>658</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="24" t="s">
         <v>659</v>
       </c>
@@ -12641,7 +12643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="24" t="s">
         <v>660</v>
       </c>
@@ -12661,7 +12663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="24" t="s">
         <v>661</v>
       </c>
@@ -12681,7 +12683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="24" t="s">
         <v>662</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="24" t="s">
         <v>663</v>
       </c>
@@ -12741,26 +12743,26 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1015625" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.1015625" customWidth="1"/>
+    <col min="6" max="6" width="7.89453125" customWidth="1"/>
+    <col min="7" max="7" width="14.20703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5234375" customWidth="1"/>
+    <col min="9" max="9" width="10.20703125" customWidth="1"/>
+    <col min="10" max="10" width="10.1015625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.3125" customWidth="1"/>
+    <col min="14" max="14" width="10.20703125" customWidth="1"/>
+    <col min="15" max="15" width="9.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="59">
         <v>43648</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="63">
         <v>43648</v>
       </c>
@@ -12901,7 +12903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="67">
         <v>43647</v>
       </c>
@@ -12948,7 +12950,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="67">
         <v>43647</v>
       </c>
@@ -13009,25 +13011,25 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="80.5546875" style="57" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="57" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="57" customWidth="1"/>
-    <col min="9" max="9" width="80.5546875" style="47" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="62.5546875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="27.5546875" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="47"/>
+    <col min="1" max="1" width="11.68359375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="15.5234375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="80.5234375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14.5234375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="9.5234375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="18.5234375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="80.5234375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="25.89453125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="28.5234375" style="47" customWidth="1"/>
+    <col min="12" max="12" width="62.5234375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="27.5234375" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="9.1015625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="51" t="s">
         <v>64</v>
       </c>
@@ -13068,7 +13070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52">
         <v>43978.811851851853</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="79">
         <v>43978.780266203699</v>
       </c>
@@ -13135,7 +13137,7 @@
       <c r="L3" s="83"/>
       <c r="M3" s="83"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="52">
         <v>43978.70313657407</v>
       </c>
@@ -13167,7 +13169,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53">
         <v>43978.97010416667</v>
       </c>
@@ -13202,7 +13204,7 @@
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="52">
         <v>43979.499131944445</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="79">
         <v>43978.811331018514</v>
       </c>
@@ -13269,7 +13271,7 @@
       <c r="L7" s="83"/>
       <c r="M7" s="83"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="52">
         <v>43977.774687500001</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="52">
         <v>43978.561956018515</v>
       </c>
@@ -13333,7 +13335,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="52">
         <v>43978.967627314814</v>
       </c>
@@ -13365,7 +13367,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52">
         <v>43977.568668981483</v>
       </c>
@@ -13397,7 +13399,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="52">
         <v>43979.22828703704</v>
       </c>
@@ -13429,7 +13431,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="52">
         <v>43979.228333333333</v>
       </c>
@@ -13461,7 +13463,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52">
         <v>43978.822187500002</v>
       </c>
@@ -13493,7 +13495,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="52">
         <v>43977.875879629632</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="52">
         <v>43977.871631944443</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="52">
         <v>43978.822141203702</v>
       </c>
@@ -13589,7 +13591,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="52">
         <v>43977.828298611115</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="52">
         <v>43979.319004629629</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="52">
         <v>43978.434178240743</v>
       </c>
@@ -13685,7 +13687,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="52">
         <v>43979.380520833336</v>
       </c>
@@ -13717,7 +13719,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="52">
         <v>43977.817280092597</v>
       </c>
@@ -13749,7 +13751,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="52">
         <v>43978.707974537036</v>
       </c>
@@ -13781,7 +13783,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="52">
         <v>43978.785601851851</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="52">
         <v>43978.810648148152</v>
       </c>
@@ -13845,7 +13847,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="52">
         <v>43978.61990740741</v>
       </c>
@@ -13877,7 +13879,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="52">
         <v>43978.863402777773</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="52">
         <v>43979.499166666668</v>
       </c>
@@ -13941,7 +13943,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="52">
         <v>43978.434317129635</v>
       </c>
@@ -13973,7 +13975,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="52">
         <v>43978.927199074074</v>
       </c>
@@ -14005,7 +14007,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="52">
         <v>43978.70313657407</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="52">
         <v>43978.810636574075</v>
       </c>
@@ -14069,7 +14071,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="52">
         <v>43978.472534722227</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="52">
         <v>43977.869305555556</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52">
         <v>43977.759641203702</v>
       </c>
@@ -14165,7 +14167,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="52">
         <v>43978.866296296299</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53">
         <v>43978.829386574071</v>
       </c>
@@ -14250,15 +14252,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7890625" customWidth="1"/>
+    <col min="3" max="3" width="43.5234375" customWidth="1"/>
+    <col min="4" max="4" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7890625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="44" t="s">
         <v>733</v>
       </c>
@@ -14275,7 +14277,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="61" t="s">
         <v>678</v>
       </c>
@@ -14292,7 +14294,7 @@
         <v>8.2802547770700632E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>678</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>0.57324840764331209</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>678</v>
       </c>
@@ -14326,7 +14328,7 @@
         <v>0.26114649681528662</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>678</v>
       </c>
@@ -14343,7 +14345,7 @@
         <v>7.0063694267515922E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>678</v>
       </c>
@@ -14360,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="65" t="s">
         <v>678</v>
       </c>
@@ -14377,7 +14379,7 @@
         <v>1.2738853503184714E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>0.25806451612903225</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>687</v>
       </c>
@@ -14411,7 +14413,7 @@
         <v>0.11559139784946236</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>687</v>
       </c>
@@ -14428,7 +14430,7 @@
         <v>0.239247311827957</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>687</v>
       </c>
@@ -14445,7 +14447,7 @@
         <v>4.0322580645161289E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>687</v>
       </c>
@@ -14462,7 +14464,7 @@
         <v>0.19086021505376344</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="65" t="s">
         <v>687</v>
       </c>
